--- a/Banco Central/10/3/Comercio 2003 a 2021 - Mensual.xlsx
+++ b/Banco Central/10/3/Comercio 2003 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Serie</t>
   </si>
@@ -692,6 +692,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N213"/>
+  <dimension ref="A1:N214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10427,6 +10430,50 @@
         <v>55.3</v>
       </c>
     </row>
+    <row r="214" spans="1:14">
+      <c r="A214" t="s">
+        <v>226</v>
+      </c>
+      <c r="B214">
+        <v>41.5</v>
+      </c>
+      <c r="C214">
+        <v>56.3</v>
+      </c>
+      <c r="D214">
+        <v>58.9</v>
+      </c>
+      <c r="E214">
+        <v>63.8</v>
+      </c>
+      <c r="F214">
+        <v>80.40000000000001</v>
+      </c>
+      <c r="G214">
+        <v>55.8</v>
+      </c>
+      <c r="H214">
+        <v>48.7</v>
+      </c>
+      <c r="I214">
+        <v>52.7</v>
+      </c>
+      <c r="J214">
+        <v>62.1</v>
+      </c>
+      <c r="K214">
+        <v>59.4</v>
+      </c>
+      <c r="L214">
+        <v>55.8</v>
+      </c>
+      <c r="M214">
+        <v>3.6</v>
+      </c>
+      <c r="N214">
+        <v>59.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
